--- a/results/gurobi_cplex_comparison/seed_20_k_40.xlsx
+++ b/results/gurobi_cplex_comparison/seed_20_k_40.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.014</v>
+        <v>1.085</v>
       </c>
       <c r="F2">
-        <v>0.032</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.027</v>
+        <v>1.565</v>
       </c>
       <c r="F3">
-        <v>0.041</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.028</v>
+        <v>2.134</v>
       </c>
       <c r="F4">
-        <v>0.104</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.067</v>
+        <v>2.882</v>
       </c>
       <c r="F5">
-        <v>0.067</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.054</v>
+        <v>3.523</v>
       </c>
       <c r="F6">
-        <v>0.068</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.081</v>
+        <v>4.426</v>
       </c>
       <c r="F7">
-        <v>0.11</v>
+        <v>1.062</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.036</v>
+        <v>5.284</v>
       </c>
       <c r="F8">
-        <v>0.065</v>
+        <v>1.099</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.127</v>
+        <v>6.401</v>
       </c>
       <c r="F9">
-        <v>0.098</v>
+        <v>1.332</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.029</v>
+        <v>7.343</v>
       </c>
       <c r="F10">
-        <v>0.09</v>
+        <v>1.532</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.046</v>
+        <v>8.638999999999999</v>
       </c>
       <c r="F11">
-        <v>0.08</v>
+        <v>1.901</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.079</v>
+        <v>9.878</v>
       </c>
       <c r="F12">
-        <v>83.94799999999999</v>
+        <v>98.455</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.287</v>
+        <v>11.423</v>
       </c>
       <c r="F13">
-        <v>45.358</v>
+        <v>73.566</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.209</v>
+        <v>12.773</v>
       </c>
       <c r="F14">
-        <v>24.037</v>
+        <v>85.39400000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.189</v>
+        <v>14.284</v>
       </c>
       <c r="F15">
-        <v>92.76900000000001</v>
+        <v>111.256</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.135</v>
+        <v>15.893</v>
       </c>
       <c r="F16">
-        <v>39.708</v>
+        <v>122.891</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.375</v>
+        <v>17.945</v>
       </c>
       <c r="F17">
-        <v>27.835</v>
+        <v>100.292</v>
       </c>
     </row>
   </sheetData>
